--- a/testdata/FCfiles/stg/ManageOrdersTestData.xlsx
+++ b/testdata/FCfiles/stg/ManageOrdersTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="6330" windowWidth="15480" xWindow="0" yWindow="2520"/>
+    <workbookView activeTab="1" windowHeight="6330" windowWidth="15480" xWindow="0" yWindow="2520"/>
   </bookViews>
   <sheets>
     <sheet name="Reroute Request" r:id="rId1" sheetId="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Location Name</t>
   </si>
@@ -135,91 +135,10 @@
     <t>Withdraw</t>
   </si>
   <si>
-    <t>fces</t>
-  </si>
-  <si>
-    <t>51498398</t>
-  </si>
-  <si>
-    <t>51495314</t>
-  </si>
-  <si>
-    <t>51498462</t>
-  </si>
-  <si>
-    <t>51495312</t>
-  </si>
-  <si>
-    <t>51499583</t>
-  </si>
-  <si>
-    <t>51492405</t>
-  </si>
-  <si>
-    <t>51499682</t>
-  </si>
-  <si>
-    <t>51492012</t>
-  </si>
-  <si>
-    <t>51500782</t>
-  </si>
-  <si>
-    <t>51488751</t>
-  </si>
-  <si>
-    <t>51500899</t>
-  </si>
-  <si>
-    <t>51487922</t>
-  </si>
-  <si>
-    <t>51502018</t>
-  </si>
-  <si>
-    <t>51487919</t>
-  </si>
-  <si>
-    <t>51502077</t>
-  </si>
-  <si>
-    <t>51487917</t>
-  </si>
-  <si>
-    <t>51502206</t>
-  </si>
-  <si>
-    <t>51487531</t>
-  </si>
-  <si>
-    <t>51503438</t>
-  </si>
-  <si>
-    <t>51487044</t>
-  </si>
-  <si>
-    <t>51521969</t>
-  </si>
-  <si>
-    <t>51486557</t>
-  </si>
-  <si>
-    <t>51522341</t>
-  </si>
-  <si>
-    <t>51486546</t>
-  </si>
-  <si>
-    <t>51522459</t>
-  </si>
-  <si>
-    <t>51522309</t>
-  </si>
-  <si>
-    <t>51527019</t>
-  </si>
-  <si>
-    <t>51485955</t>
+    <t>FCBTX</t>
+  </si>
+  <si>
+    <t>58571277</t>
   </si>
 </sst>
 </file>
@@ -254,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -289,6 +208,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <top style="thin"/>
     </border>
     <border>
@@ -299,53 +229,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="18" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -642,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -824,13 +716,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.98828125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
@@ -851,8 +743,8 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="43" t="s">
-        <v>66</v>
+      <c r="A2" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -862,9 +754,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="45" t="s">
-        <v>67</v>
-      </c>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -876,9 +766,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="44" t="s">
-        <v>67</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>31</v>
       </c>

--- a/testdata/FCfiles/stg/ManageOrdersTestData.xlsx
+++ b/testdata/FCfiles/stg/ManageOrdersTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Location Name</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>58571277</t>
+  </si>
+  <si>
+    <t>58572417</t>
+  </si>
+  <si>
+    <t>58542457</t>
+  </si>
+  <si>
+    <t>58572178</t>
+  </si>
+  <si>
+    <t>58542385</t>
   </si>
 </sst>
 </file>
@@ -229,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
@@ -237,6 +249,13 @@
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
@@ -722,7 +741,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.98828125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
@@ -743,8 +762,8 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>40</v>
+      <c r="A2" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -754,7 +773,9 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
+      <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -766,7 +787,9 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
+      <c r="A4" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>

--- a/testdata/FCfiles/stg/ManageOrdersTestData.xlsx
+++ b/testdata/FCfiles/stg/ManageOrdersTestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{96F620D3-9C2A-45F7-AB0C-50DBC720B028}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="6330" windowWidth="15480" xWindow="0" yWindow="2520"/>
+    <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Reroute Request" r:id="rId1" sheetId="1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Location Name</t>
   </si>
@@ -135,30 +136,24 @@
     <t>Withdraw</t>
   </si>
   <si>
-    <t>FCBTX</t>
-  </si>
-  <si>
-    <t>58571277</t>
-  </si>
-  <si>
-    <t>58572417</t>
-  </si>
-  <si>
-    <t>58542457</t>
-  </si>
-  <si>
     <t>58572178</t>
   </si>
   <si>
     <t>58542385</t>
+  </si>
+  <si>
+    <t>cev</t>
+  </si>
+  <si>
+    <t>59072066</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,8 +179,13 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -220,17 +220,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <top style="thin"/>
     </border>
     <border>
@@ -241,28 +230,29 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="18" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -309,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,9 +331,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,6 +383,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,14 +576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
     <col min="2" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
@@ -575,7 +601,7 @@
     <col min="15" max="15" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -622,7 +648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -659,7 +685,7 @@
       </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -694,7 +720,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -732,14 +758,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
@@ -747,7 +773,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -761,9 +787,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="12" t="s">
-        <v>43</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -772,29 +798,29 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="14" t="s">
-        <v>44</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="13" t="s">
-        <v>44</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
@@ -806,12 +832,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
